--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB21607-AC04-47C9-BD4E-C5449B8CD6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA6FB1-9AD9-4C8F-AD3F-5DDA2C1C8239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Backup Session with Khush &amp; Varun</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Shalvi</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,16 +436,22 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>45424</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="1">
+        <v>45431</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45438</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45445</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -448,73 +463,164 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DA6FB1-9AD9-4C8F-AD3F-5DDA2C1C8239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97BF72-C550-4FEF-97AF-0AA81A81B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Viraj</t>
   </si>
   <si>
-    <t>Janmay</t>
-  </si>
-  <si>
     <t>Namra Shah</t>
   </si>
   <si>
@@ -66,13 +63,25 @@
     <t>Backup Session with Khush &amp; Varun</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Shalvi</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Agnivesh Patel</t>
+  </si>
+  <si>
+    <t>Jay Vaghasiya</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
   </si>
 </sst>
 </file>
@@ -425,35 +434,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
         <v>45424</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>45431</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>45438</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>45445</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>45459</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -465,67 +479,86 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -533,31 +566,40 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -567,66 +609,113 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
+    <sortCondition ref="A2:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF97BF72-C550-4FEF-97AF-0AA81A81B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D546E-3CD4-4B14-8B58-59C8765E475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,9 @@
       <c r="G1" s="1">
         <v>45459</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1">
+        <v>45466</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -503,6 +505,9 @@
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -526,6 +531,9 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -549,6 +557,9 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -572,6 +583,9 @@
       <c r="G5" t="s">
         <v>1</v>
       </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -595,6 +609,9 @@
       <c r="G6" t="s">
         <v>2</v>
       </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -615,6 +632,9 @@
       <c r="G7" t="s">
         <v>2</v>
       </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -638,6 +658,9 @@
       <c r="G8" t="s">
         <v>2</v>
       </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -661,6 +684,9 @@
       <c r="G9" t="s">
         <v>2</v>
       </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -684,6 +710,9 @@
       <c r="G10" t="s">
         <v>3</v>
       </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -705,6 +734,9 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D546E-3CD4-4B14-8B58-59C8765E475C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC93380-1D0A-4969-A8A0-0AE2138FF06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +471,9 @@
       <c r="H1" s="1">
         <v>45466</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1">
+        <v>45473</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -508,6 +510,9 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -534,6 +539,9 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -560,6 +568,9 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -586,6 +597,9 @@
       <c r="H5" t="s">
         <v>1</v>
       </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -612,6 +626,9 @@
       <c r="H6" t="s">
         <v>2</v>
       </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -635,6 +652,9 @@
       <c r="H7" t="s">
         <v>2</v>
       </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -661,6 +681,9 @@
       <c r="H8" t="s">
         <v>2</v>
       </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -687,6 +710,9 @@
       <c r="H9" t="s">
         <v>1</v>
       </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -713,6 +739,9 @@
       <c r="H10" t="s">
         <v>3</v>
       </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -737,6 +766,9 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC93380-1D0A-4969-A8A0-0AE2138FF06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8521B8B-73DC-48AB-ACAC-FF6717C04FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -60,18 +60,12 @@
     <t>Sharanya Kwatra</t>
   </si>
   <si>
-    <t>Backup Session with Khush &amp; Varun</t>
-  </si>
-  <si>
     <t>Shalvi</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Agnivesh Patel</t>
-  </si>
-  <si>
     <t>Jay Vaghasiya</t>
   </si>
   <si>
@@ -81,7 +75,19 @@
     <t>Ahmedabad</t>
   </si>
   <si>
-    <t>Gandhinagar</t>
+    <t>Jainam Vora</t>
+  </si>
+  <si>
+    <t>Harshika Mehta</t>
+  </si>
+  <si>
+    <t>Priti Patel</t>
+  </si>
+  <si>
+    <t>Parth Thakkar</t>
+  </si>
+  <si>
+    <t>Count of students</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,12 +452,12 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1">
         <v>45424</v>
@@ -474,312 +480,562 @@
       <c r="I1" s="1">
         <v>45473</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="J1" s="1">
+        <v>45487</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45494</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45522</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45529</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>11</v>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8521B8B-73DC-48AB-ACAC-FF6717C04FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64D347-5E29-490D-A2A5-399EDCC97EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Count of students</t>
+  </si>
+  <si>
+    <t>Jalp Panchal</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +495,9 @@
       <c r="M1" s="1">
         <v>45529</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1">
+        <v>45536</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -538,6 +543,9 @@
       <c r="M2" t="s">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -579,6 +587,9 @@
       <c r="M3" t="s">
         <v>3</v>
       </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -620,6 +631,9 @@
       <c r="M4" t="s">
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -661,6 +675,9 @@
       <c r="M5" t="s">
         <v>3</v>
       </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -702,6 +719,9 @@
       <c r="M6" t="s">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -743,6 +763,9 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -784,6 +807,9 @@
       <c r="M8" t="s">
         <v>2</v>
       </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -825,6 +851,9 @@
       <c r="M9" t="s">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -866,6 +895,9 @@
       <c r="M10" t="s">
         <v>1</v>
       </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -907,6 +939,9 @@
       <c r="M11" t="s">
         <v>2</v>
       </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -948,6 +983,9 @@
       <c r="M12" t="s">
         <v>2</v>
       </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -989,6 +1027,9 @@
       <c r="M13" t="s">
         <v>3</v>
       </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1026,6 +1067,53 @@
       </c>
       <c r="M14" t="s">
         <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64D347-5E29-490D-A2A5-399EDCC97EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3BBD4-2CBB-41DC-8D50-9FE29DAABECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -446,7 +446,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,9 @@
       <c r="N1" s="1">
         <v>45536</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1">
+        <v>45543</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -546,6 +548,9 @@
       <c r="N2" t="s">
         <v>3</v>
       </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -590,10 +595,13 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -611,77 +619,83 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -693,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -717,65 +731,71 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -787,77 +807,83 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -884,24 +910,27 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -910,63 +939,66 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
         <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
@@ -984,27 +1016,30 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -1013,30 +1048,36 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
@@ -1045,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
@@ -1054,66 +1095,69 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1122,8 +1166,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3BBD4-2CBB-41DC-8D50-9FE29DAABECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058F35E-F80B-4501-9F1D-E19A9F72462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -446,7 +446,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +501,9 @@
       <c r="O1" s="1">
         <v>45543</v>
       </c>
-      <c r="P1" s="1"/>
+      <c r="P1" s="1">
+        <v>45550</v>
+      </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
@@ -551,6 +553,9 @@
       <c r="O2" t="s">
         <v>1</v>
       </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -598,6 +603,9 @@
       <c r="O3" t="s">
         <v>3</v>
       </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -645,6 +653,9 @@
       <c r="O4" t="s">
         <v>1</v>
       </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -692,6 +703,9 @@
       <c r="O5" t="s">
         <v>1</v>
       </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -739,6 +753,9 @@
       <c r="O6" t="s">
         <v>1</v>
       </c>
+      <c r="P6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -786,6 +803,9 @@
       <c r="O7" t="s">
         <v>1</v>
       </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -833,6 +853,9 @@
       <c r="O8" t="s">
         <v>3</v>
       </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -880,6 +903,9 @@
       <c r="O9" t="s">
         <v>2</v>
       </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -927,6 +953,9 @@
       <c r="O10" t="s">
         <v>2</v>
       </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -974,6 +1003,9 @@
       <c r="O11" t="s">
         <v>1</v>
       </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1021,6 +1053,9 @@
       <c r="O12" t="s">
         <v>2</v>
       </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1068,6 +1103,9 @@
       <c r="O13" t="s">
         <v>2</v>
       </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1115,6 +1153,9 @@
       <c r="O14" t="s">
         <v>1</v>
       </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1157,6 +1198,9 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058F35E-F80B-4501-9F1D-E19A9F72462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE8BAA-0BD5-4070-9FDB-FABB8135A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -446,7 +446,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,9 @@
       <c r="P1" s="1">
         <v>45550</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1">
+        <v>45557</v>
+      </c>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -556,6 +558,9 @@
       <c r="P2" t="s">
         <v>1</v>
       </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -606,6 +611,9 @@
       <c r="P3" t="s">
         <v>3</v>
       </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -656,6 +664,9 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -706,6 +717,9 @@
       <c r="P5" t="s">
         <v>1</v>
       </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -756,6 +770,9 @@
       <c r="P6" t="s">
         <v>1</v>
       </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -806,6 +823,9 @@
       <c r="P7" t="s">
         <v>3</v>
       </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -856,6 +876,9 @@
       <c r="P8" t="s">
         <v>2</v>
       </c>
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -906,6 +929,9 @@
       <c r="P9" t="s">
         <v>2</v>
       </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -956,6 +982,9 @@
       <c r="P10" t="s">
         <v>2</v>
       </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1006,6 +1035,9 @@
       <c r="P11" t="s">
         <v>2</v>
       </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1056,6 +1088,9 @@
       <c r="P12" t="s">
         <v>2</v>
       </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1106,6 +1141,9 @@
       <c r="P13" t="s">
         <v>2</v>
       </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1156,6 +1194,9 @@
       <c r="P14" t="s">
         <v>2</v>
       </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1201,6 +1242,9 @@
         <v>2</v>
       </c>
       <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE8BAA-0BD5-4070-9FDB-FABB8135A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E23871-6BB6-40F1-B5AF-BA2B4ECE549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822180F9-E4E2-4D10-B8F7-229F5B87376E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Jalp Panchal</t>
+  </si>
+  <si>
+    <t>Adwait Kathiriya</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126A5D5F-C148-4702-AC91-410419350378}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +510,9 @@
       <c r="Q1" s="1">
         <v>45557</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="1">
+        <v>45578</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -561,6 +566,9 @@
       <c r="Q2" t="s">
         <v>3</v>
       </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -614,6 +622,9 @@
       <c r="Q3" t="s">
         <v>1</v>
       </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -667,6 +678,9 @@
       <c r="Q4" t="s">
         <v>1</v>
       </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -720,6 +734,9 @@
       <c r="Q5" t="s">
         <v>1</v>
       </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -773,6 +790,9 @@
       <c r="Q6" t="s">
         <v>3</v>
       </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -826,6 +846,9 @@
       <c r="Q7" t="s">
         <v>1</v>
       </c>
+      <c r="R7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -879,6 +902,9 @@
       <c r="Q8" t="s">
         <v>2</v>
       </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -932,6 +958,9 @@
       <c r="Q9" t="s">
         <v>2</v>
       </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -985,6 +1014,9 @@
       <c r="Q10" t="s">
         <v>2</v>
       </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1038,6 +1070,9 @@
       <c r="Q11" t="s">
         <v>1</v>
       </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1091,6 +1126,9 @@
       <c r="Q12" t="s">
         <v>2</v>
       </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1144,6 +1182,9 @@
       <c r="Q13" t="s">
         <v>2</v>
       </c>
+      <c r="R13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1197,6 +1238,9 @@
       <c r="Q14" t="s">
         <v>2</v>
       </c>
+      <c r="R14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1247,9 +1291,68 @@
       <c r="Q15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
